--- a/storage/app/Salesforce_Data.xlsx
+++ b/storage/app/Salesforce_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bac315b0d3b5b5/Documents/St. Ignatius/MySI Updates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{D889AA16-A00E-464F-AE1B-E5205341EA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DADEA41A-E7CC-4E90-ABD2-006AA67AC010}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{D889AA16-A00E-464F-AE1B-E5205341EA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80F7395F-A4D0-4F92-9094-9C5D62B3DA76}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{59190C2A-CC40-4451-87C1-FB59B42252F5}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59190C2A-CC40-4451-87C1-FB59B42252F5}"/>
   </bookViews>
   <sheets>
     <sheet name="accounts" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -89,9 +89,6 @@
     <t>0017400000HyHhCAAV</t>
   </si>
   <si>
-    <t>The Ramil Ferro Family</t>
-  </si>
-  <si>
     <t>0017400000HyFs9AAF</t>
   </si>
   <si>
@@ -336,6 +333,18 @@
   </si>
   <si>
     <t>a0n74000001q94KAAQ</t>
+  </si>
+  <si>
+    <t>0037400000EpfwPAAR</t>
+  </si>
+  <si>
+    <t>The Ramil Ferro and Maria Park Family</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Park</t>
   </si>
 </sst>
 </file>
@@ -414,6 +423,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,13 +728,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7DABB4-9F03-48D0-9515-9B91AD62C62D}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -833,13 +846,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>4155556000</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -852,7 +865,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5E59C9-E9B7-481A-982D-7CA3F179C177}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -879,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -891,31 +904,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -926,31 +939,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="N2">
         <v>4155551000</v>
@@ -964,31 +977,31 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="N3">
         <v>4155552000</v>
@@ -1002,28 +1015,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="N4">
         <v>4155553000</v>
@@ -1037,28 +1050,28 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
         <v>47</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="N5">
         <v>4155554000</v>
@@ -1072,28 +1085,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
         <v>51</v>
       </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
       <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="N6">
         <v>4153707544</v>
@@ -1107,28 +1120,28 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
         <v>55</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="N7">
         <v>4155555000</v>
@@ -1142,31 +1155,66 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
         <v>59</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="N8">
         <v>4155556000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9">
+        <v>4155557000</v>
       </c>
     </row>
   </sheetData>
@@ -1175,9 +1223,10 @@
     <hyperlink ref="M3" r:id="rId2" xr:uid="{4389B5BB-1E4C-4590-B73A-7318BA202C35}"/>
     <hyperlink ref="M4" r:id="rId3" xr:uid="{66D48F5C-9EDC-4AD7-B291-442747EC1E7E}"/>
     <hyperlink ref="M5" r:id="rId4" xr:uid="{55833131-8A69-4A16-89FA-ABE51A8CA2E3}"/>
-    <hyperlink ref="M6" r:id="rId5" xr:uid="{592575C1-E417-41C6-8AC8-989FEFA0489D}"/>
-    <hyperlink ref="M7" r:id="rId6" xr:uid="{758580D0-02E0-4DB1-8AA7-9BC3C35557EB}"/>
-    <hyperlink ref="M8" r:id="rId7" xr:uid="{529BC9D0-2F37-42E2-AE00-5FF1BE5C45D2}"/>
+    <hyperlink ref="M7" r:id="rId5" xr:uid="{758580D0-02E0-4DB1-8AA7-9BC3C35557EB}"/>
+    <hyperlink ref="M8" r:id="rId6" xr:uid="{529BC9D0-2F37-42E2-AE00-5FF1BE5C45D2}"/>
+    <hyperlink ref="M6" r:id="rId7" xr:uid="{129CCA0D-5104-468B-BF0A-E1262CD924FA}"/>
+    <hyperlink ref="M9" r:id="rId8" xr:uid="{4F8D75BD-2B43-470D-8BB1-C0D11B39C982}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1213,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1225,34 +1274,34 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1263,37 +1312,37 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2">
         <v>4153707544</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N2">
         <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1304,37 +1353,37 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
         <v>72</v>
       </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3">
         <v>4153707544</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C808194-4604-4A6C-9853-AAD5EEE78962}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1371,31 +1420,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -1409,16 +1458,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
         <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
       </c>
       <c r="G2">
         <v>94001</v>
@@ -1430,10 +1479,10 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1444,16 +1493,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
         <v>85</v>
-      </c>
-      <c r="F3" t="s">
-        <v>86</v>
       </c>
       <c r="G3">
         <v>94001</v>
@@ -1465,10 +1514,10 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1479,16 +1528,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
         <v>85</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
       </c>
       <c r="G4">
         <v>94001</v>
@@ -1500,10 +1549,10 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1514,16 +1563,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
         <v>85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>86</v>
       </c>
       <c r="G5">
         <v>94001</v>
@@ -1535,10 +1584,10 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1549,16 +1598,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
         <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>86</v>
       </c>
       <c r="G6">
         <v>94001</v>
@@ -1570,10 +1619,10 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1584,16 +1633,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
         <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
       </c>
       <c r="G7">
         <v>94001</v>
@@ -1602,13 +1651,13 @@
         <v>4155556000</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/Salesforce_Data.xlsx
+++ b/storage/app/Salesforce_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bac315b0d3b5b5/Documents/St. Ignatius/MySI Updates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{D889AA16-A00E-464F-AE1B-E5205341EA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80F7395F-A4D0-4F92-9094-9C5D62B3DA76}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{D889AA16-A00E-464F-AE1B-E5205341EA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A8476F4-DB73-48EA-B3FF-F98E6474BB29}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59190C2A-CC40-4451-87C1-FB59B42252F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{59190C2A-CC40-4451-87C1-FB59B42252F5}"/>
   </bookViews>
   <sheets>
     <sheet name="accounts" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -728,13 +730,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7DABB4-9F03-48D0-9515-9B91AD62C62D}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -746,7 +750,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -763,7 +767,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>4155551000</v>
       </c>
       <c r="D2" t="s">
@@ -780,7 +784,7 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>4155552000</v>
       </c>
       <c r="D3" t="s">
@@ -797,7 +801,7 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>4155553000</v>
       </c>
       <c r="D4" t="s">
@@ -814,7 +818,7 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>4155554000</v>
       </c>
       <c r="D5" t="s">
@@ -831,7 +835,7 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>4155555000</v>
       </c>
       <c r="D6" t="s">
@@ -848,7 +852,7 @@
       <c r="B7" t="s">
         <v>99</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>4155556000</v>
       </c>
       <c r="D7" t="s">
@@ -884,7 +888,7 @@
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -927,7 +931,7 @@
       <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -965,7 +969,7 @@
       <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>4155551000</v>
       </c>
     </row>
@@ -1003,7 +1007,7 @@
       <c r="M3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>4155552000</v>
       </c>
     </row>
@@ -1038,7 +1042,7 @@
       <c r="M4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>4155553000</v>
       </c>
     </row>
@@ -1073,7 +1077,7 @@
       <c r="M5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>4155554000</v>
       </c>
     </row>
@@ -1108,7 +1112,7 @@
       <c r="M6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>4153707544</v>
       </c>
     </row>
@@ -1143,7 +1147,7 @@
       <c r="M7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>4155555000</v>
       </c>
     </row>
@@ -1178,7 +1182,7 @@
       <c r="M8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>4155556000</v>
       </c>
     </row>
@@ -1213,7 +1217,7 @@
       <c r="M9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>4155557000</v>
       </c>
     </row>
@@ -1251,7 +1255,7 @@
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
@@ -1291,7 +1295,7 @@
       <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1332,7 +1336,7 @@
       <c r="K2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>4153707544</v>
       </c>
       <c r="M2" t="s">
@@ -1373,7 +1377,7 @@
       <c r="K3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>4153707544</v>
       </c>
       <c r="M3" t="s">
@@ -1399,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C808194-4604-4A6C-9853-AAD5EEE78962}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1408,8 +1412,8 @@
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -1434,10 +1438,10 @@
       <c r="F1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1469,10 +1473,10 @@
       <c r="F2" t="s">
         <v>85</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>94001</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>4155551000</v>
       </c>
       <c r="I2" t="s">
@@ -1504,10 +1508,10 @@
       <c r="F3" t="s">
         <v>85</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>94001</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>4155552000</v>
       </c>
       <c r="I3" t="s">
@@ -1539,10 +1543,10 @@
       <c r="F4" t="s">
         <v>85</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>94001</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>4155553000</v>
       </c>
       <c r="I4" t="s">
@@ -1574,10 +1578,10 @@
       <c r="F5" t="s">
         <v>85</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>94001</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>4155554000</v>
       </c>
       <c r="I5" t="s">
@@ -1609,10 +1613,10 @@
       <c r="F6" t="s">
         <v>85</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>94001</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>4155555000</v>
       </c>
       <c r="I6" t="s">
@@ -1644,10 +1648,10 @@
       <c r="F7" t="s">
         <v>85</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>94001</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>4155556000</v>
       </c>
       <c r="I7" t="s">

--- a/storage/app/Salesforce_Data.xlsx
+++ b/storage/app/Salesforce_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49bac315b0d3b5b5/Documents/St. Ignatius/MySI Updates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{D889AA16-A00E-464F-AE1B-E5205341EA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A8476F4-DB73-48EA-B3FF-F98E6474BB29}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{D889AA16-A00E-464F-AE1B-E5205341EA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8D8A2CB-1F99-4AFB-AC49-DE6A0A9523A2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{59190C2A-CC40-4451-87C1-FB59B42252F5}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{59190C2A-CC40-4451-87C1-FB59B42252F5}"/>
   </bookViews>
   <sheets>
     <sheet name="accounts" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="132">
   <si>
     <t>id</t>
   </si>
@@ -345,6 +345,96 @@
   </si>
   <si>
     <t>Park</t>
+  </si>
+  <si>
+    <t>The Ramil Ferro and Cherie Roberts Family</t>
+  </si>
+  <si>
+    <t>4155557000</t>
+  </si>
+  <si>
+    <t>4155551000</t>
+  </si>
+  <si>
+    <t>4155552000</t>
+  </si>
+  <si>
+    <t>4155553000</t>
+  </si>
+  <si>
+    <t>4155554000</t>
+  </si>
+  <si>
+    <t>4155555000</t>
+  </si>
+  <si>
+    <t>4155556000</t>
+  </si>
+  <si>
+    <t>0017400000Hzu6RAAR</t>
+  </si>
+  <si>
+    <t>7 Main Street</t>
+  </si>
+  <si>
+    <t>94001</t>
+  </si>
+  <si>
+    <t>a0n74000001qAxPAAU</t>
+  </si>
+  <si>
+    <t>4153707544</t>
+  </si>
+  <si>
+    <t>4155556500</t>
+  </si>
+  <si>
+    <t>0037400000Epum1AAB</t>
+  </si>
+  <si>
+    <t>Cherie</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>croberts@xmail.com</t>
+  </si>
+  <si>
+    <t>4155557500</t>
+  </si>
+  <si>
+    <t>0037400000EpulwAAB</t>
+  </si>
+  <si>
+    <t>ramilferro@comcast.net</t>
+  </si>
+  <si>
+    <t>0037400000EpumGAAR</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Mikey</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Abbott Middle School</t>
+  </si>
+  <si>
+    <t>0037400000EpumVAAR</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Nessa</t>
+  </si>
+  <si>
+    <t>Allendale Elementary School</t>
   </si>
 </sst>
 </file>
@@ -728,16 +818,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7DABB4-9F03-48D0-9515-9B91AD62C62D}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -767,8 +855,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
-        <v>4155551000</v>
+      <c r="C2" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -784,8 +872,8 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
-        <v>4155552000</v>
+      <c r="C3" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -801,8 +889,8 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
-        <v>4155553000</v>
+      <c r="C4" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -818,8 +906,8 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
-        <v>4155554000</v>
+      <c r="C5" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -835,8 +923,8 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4">
-        <v>4155555000</v>
+      <c r="C6" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -852,13 +940,30 @@
       <c r="B7" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="4">
-        <v>4155556000</v>
+      <c r="C7" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -869,7 +974,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5E59C9-E9B7-481A-982D-7CA3F179C177}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -887,7 +992,7 @@
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -969,8 +1074,8 @@
       <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="4">
-        <v>4155551000</v>
+      <c r="N2" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1007,8 +1112,8 @@
       <c r="M3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="4">
-        <v>4155552000</v>
+      <c r="N3" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1042,8 +1147,8 @@
       <c r="M4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="4">
-        <v>4155553000</v>
+      <c r="N4" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1077,8 +1182,8 @@
       <c r="M5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="4">
-        <v>4155554000</v>
+      <c r="N5" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1112,8 +1217,8 @@
       <c r="M6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="4">
-        <v>4153707544</v>
+      <c r="N6" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1147,8 +1252,8 @@
       <c r="M7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="4">
-        <v>4155555000</v>
+      <c r="N7" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1182,8 +1287,8 @@
       <c r="M8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="4">
-        <v>4155556000</v>
+      <c r="N8" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1217,8 +1322,78 @@
       <c r="M9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="4">
-        <v>4155557000</v>
+      <c r="N9" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1231,6 +1406,8 @@
     <hyperlink ref="M8" r:id="rId6" xr:uid="{529BC9D0-2F37-42E2-AE00-5FF1BE5C45D2}"/>
     <hyperlink ref="M6" r:id="rId7" xr:uid="{129CCA0D-5104-468B-BF0A-E1262CD924FA}"/>
     <hyperlink ref="M9" r:id="rId8" xr:uid="{4F8D75BD-2B43-470D-8BB1-C0D11B39C982}"/>
+    <hyperlink ref="M11" r:id="rId9" xr:uid="{C1675C03-3B04-4C7D-A9EB-172AFB6B5771}"/>
+    <hyperlink ref="M10" r:id="rId10" xr:uid="{D09F5E1F-4A0C-4F0A-8AA2-6B32ECC23C33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1238,7 +1415,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0FAD75-FD76-4F70-AECC-671DE8FF6A0C}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1254,7 +1431,7 @@
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1336,8 +1513,8 @@
       <c r="K2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="4">
-        <v>4153707544</v>
+      <c r="L2" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="M2" t="s">
         <v>73</v>
@@ -1377,8 +1554,8 @@
       <c r="K3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="4">
-        <v>4153707544</v>
+      <c r="L3" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="M3" t="s">
         <v>73</v>
@@ -1388,12 +1565,96 @@
       </c>
       <c r="O3" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{E62168FE-AB52-49E3-996A-4F8E696F252F}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{988E636B-197E-4F9B-943B-A0CAD38CDD3C}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{6998CFCC-50DF-47A2-BB84-DB3F378ECD66}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{588AC2A1-05A9-4FD0-9FDC-0136B07E36FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1401,9 +1662,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C808194-4604-4A6C-9853-AAD5EEE78962}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1476,8 +1737,8 @@
       <c r="G2" s="4">
         <v>94001</v>
       </c>
-      <c r="H2" s="4">
-        <v>4155551000</v>
+      <c r="H2" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -1511,8 +1772,8 @@
       <c r="G3" s="4">
         <v>94001</v>
       </c>
-      <c r="H3" s="4">
-        <v>4155552000</v>
+      <c r="H3" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -1546,8 +1807,8 @@
       <c r="G4" s="4">
         <v>94001</v>
       </c>
-      <c r="H4" s="4">
-        <v>4155553000</v>
+      <c r="H4" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -1581,8 +1842,8 @@
       <c r="G5" s="4">
         <v>94001</v>
       </c>
-      <c r="H5" s="4">
-        <v>4155554000</v>
+      <c r="H5" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -1616,8 +1877,8 @@
       <c r="G6" s="4">
         <v>94001</v>
       </c>
-      <c r="H6" s="4">
-        <v>4155555000</v>
+      <c r="H6" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -1651,8 +1912,8 @@
       <c r="G7" s="4">
         <v>94001</v>
       </c>
-      <c r="H7" s="4">
-        <v>4155556000</v>
+      <c r="H7" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
@@ -1661,6 +1922,41 @@
         <v>97</v>
       </c>
       <c r="K7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s">
         <v>83</v>
       </c>
     </row>
